--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="55">
   <si>
     <t>performance_calculator</t>
   </si>
@@ -27,9 +27,6 @@
     <t>beats_simulation</t>
   </si>
   <si>
-    <t>knobs.knob_ids</t>
-  </si>
-  <si>
     <t>knobs.knob_boundaries_min</t>
   </si>
   <si>
@@ -172,6 +169,18 @@
   </si>
   <si>
     <t>[-873337960;128793003]</t>
+  </si>
+  <si>
+    <t>knobs.knob_link_ids</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[86400]</t>
+  </si>
+  <si>
+    <t>[300]</t>
   </si>
 </sst>
 </file>
@@ -524,7 +533,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B7" sqref="B7"/>
+      <selection pane="topRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -558,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -575,336 +584,336 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>performance_calculator</t>
   </si>
@@ -75,9 +75,6 @@
     <t>[0.5;0.5]</t>
   </si>
   <si>
-    <t>[2;2]</t>
-  </si>
-  <si>
     <t>[5]</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>[1]</t>
   </si>
   <si>
-    <t>[3;3]</t>
-  </si>
-  <si>
     <t>TVH</t>
   </si>
   <si>
@@ -123,15 +117,6 @@
     <t>starting_point</t>
   </si>
   <si>
-    <t>[0.25;0.75]</t>
-  </si>
-  <si>
-    <t>[0.9;0.5]</t>
-  </si>
-  <si>
-    <t>[2;3]</t>
-  </si>
-  <si>
     <t>Utilities.char2char('manual')</t>
   </si>
   <si>
@@ -181,6 +166,12 @@
   </si>
   <si>
     <t>[300]</t>
+  </si>
+  <si>
+    <t>force_manual_knob_boundaries</t>
+  </si>
+  <si>
+    <t>[0]</t>
   </si>
 </sst>
 </file>
@@ -529,11 +520,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B6" sqref="B6"/>
+      <selection pane="topRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +536,7 @@
     <col min="5" max="5" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +544,7 @@
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
         <v>15</v>
@@ -562,12 +553,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -579,80 +570,80 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -664,260 +655,250 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E14" t="s">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="1" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>14</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
   <si>
     <t>performance_calculator</t>
   </si>
@@ -153,9 +153,6 @@
     <t>obj.beats_simulation.load_scenario('C:\Users\Felix\code\autoCalibrationProject\beats_scenarios\210E.xml');</t>
   </si>
   <si>
-    <t>[-873337960;128793003]</t>
-  </si>
-  <si>
     <t>knobs.knob_link_ids</t>
   </si>
   <si>
@@ -172,6 +169,15 @@
   </si>
   <si>
     <t>[0]</t>
+  </si>
+  <si>
+    <t>[ -873337960;128793003;-781754904;-128793036;-126537863;-126499580;-24558231;-24029866;-24026218;126499392;756090723]</t>
+  </si>
+  <si>
+    <t>[1.25;1.25;1.25;1.25;1.25;1.25;1.25;1.25;1.25;1.25;1.25]</t>
+  </si>
+  <si>
+    <t>[0.5;0.5;0.5;0.5;0.5;0.5;0.5;0.5;0.5;0.5;0.5]</t>
   </si>
 </sst>
 </file>
@@ -215,10 +221,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,7 +533,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F10" sqref="F10"/>
+      <selection pane="topRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,12 +647,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
         <v>45</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -657,19 +666,19 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
         <v>50</v>
       </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -755,7 +764,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>21</v>
@@ -772,7 +781,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>22</v>
@@ -789,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>19</v>
@@ -880,7 +889,7 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
         <v>25</v>
@@ -891,7 +900,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
         <v>18</v>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>performance_calculator</t>
   </si>
@@ -24,9 +24,6 @@
     <t>error_calculator</t>
   </si>
   <si>
-    <t>beats_simulation</t>
-  </si>
-  <si>
     <t>knobs.knob_boundaries_min</t>
   </si>
   <si>
@@ -63,15 +60,9 @@
     <t>normopts.SIGMAS</t>
   </si>
   <si>
-    <t>TVM</t>
-  </si>
-  <si>
     <t>L2</t>
   </si>
   <si>
-    <t>[3;4]</t>
-  </si>
-  <si>
     <t>[0.5;0.5]</t>
   </si>
   <si>
@@ -144,15 +135,9 @@
     <t>pems.processed_folder</t>
   </si>
   <si>
-    <t>C:\Users\Felix\code\autoCalibrationProject\pems_test\processed</t>
-  </si>
-  <si>
     <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\pems_test\processed')</t>
   </si>
   <si>
-    <t>obj.beats_simulation.load_scenario('C:\Users\Felix\code\autoCalibrationProject\beats_scenarios\210E.xml');</t>
-  </si>
-  <si>
     <t>knobs.knob_link_ids</t>
   </si>
   <si>
@@ -178,6 +163,12 @@
   </si>
   <si>
     <t>[0.5;0.5;0.5;0.5;0.5;0.5;0.5;0.5;0.5;0.5;0.5]</t>
+  </si>
+  <si>
+    <t>scenario_ptr</t>
+  </si>
+  <si>
+    <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\beats_scenarios\210E.xml');</t>
   </si>
 </sst>
 </file>
@@ -533,7 +524,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B23" sqref="B23"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,16 +541,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -567,343 +558,289 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
         <v>30</v>
       </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -524,7 +524,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,7 +769,7 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -812,7 +812,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="cmaes" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -524,7 +522,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B20" sqref="B20"/>
+      <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +750,7 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -850,28 +848,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -168,7 +168,7 @@
     <t>scenario_ptr</t>
   </si>
   <si>
-    <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\beats_scenarios\210E.xml');</t>
+    <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\config\210E_truncated_frmode.xml');</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B20" sqref="B20"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -166,7 +166,7 @@
     <t>scenario_ptr</t>
   </si>
   <si>
-    <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\beats_scenarios\210E.xml');</t>
+    <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\config\210E_joined_frmode.xml');</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -166,7 +166,7 @@
     <t>scenario_ptr</t>
   </si>
   <si>
-    <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\config\210E_joined_frmode.xml');</t>
+    <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\config\210E_joined_frmode_beats.xml');</t>
   </si>
 </sst>
 </file>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
   <si>
     <t>performance_calculator</t>
   </si>
@@ -166,7 +166,10 @@
     <t>scenario_ptr</t>
   </si>
   <si>
-    <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\beats_scenarios\210E.xml');</t>
+    <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\config\210E_joined_frmode_beats.xml');</t>
+  </si>
+  <si>
+    <t>[100]</t>
   </si>
 </sst>
 </file>
@@ -227,12 +230,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -274,7 +280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,7 +315,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -522,10 +528,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.7109375" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" customWidth="1"/>
@@ -631,7 +637,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -648,7 +654,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -665,7 +671,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
   <si>
     <t>performance_calculator</t>
   </si>
@@ -170,6 +170,15 @@
   </si>
   <si>
     <t>[100]</t>
+  </si>
+  <si>
+    <t>[200]</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>TVM</t>
   </si>
 </sst>
 </file>
@@ -528,7 +537,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>25</v>
@@ -688,7 +697,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -816,7 +825,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
   <si>
     <t>performance_calculator</t>
   </si>
@@ -170,15 +170,6 @@
   </si>
   <si>
     <t>[100]</t>
-  </si>
-  <si>
-    <t>[200]</t>
-  </si>
-  <si>
-    <t>[10]</t>
-  </si>
-  <si>
-    <t>TVM</t>
   </si>
 </sst>
 </file>
@@ -537,7 +528,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>25</v>
@@ -697,7 +688,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -825,7 +816,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
   <si>
     <t>performance_calculator</t>
   </si>
@@ -170,6 +170,21 @@
   </si>
   <si>
     <t>[100]</t>
+  </si>
+  <si>
+    <t>knobs.overevaluation_tolerance_coefficient</t>
+  </si>
+  <si>
+    <t>knobs.underevaluation_tolerance_coefficient</t>
+  </si>
+  <si>
+    <t>[1.5]</t>
+  </si>
+  <si>
+    <t>[0.5]</t>
+  </si>
+  <si>
+    <t>isnaive_knob_boundaries</t>
   </si>
 </sst>
 </file>
@@ -238,7 +253,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -280,7 +295,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,7 +330,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,14 +539,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B21" sqref="B21"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.7109375" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" customWidth="1"/>
@@ -624,231 +639,255 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>13</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>48</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="cmaes" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
-  <si>
-    <t>performance_calculator</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
   <si>
     <t>error_calculator</t>
   </si>
@@ -166,9 +163,6 @@
     <t>scenario_ptr</t>
   </si>
   <si>
-    <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\config\210E_joined_frmode_beats.xml');</t>
-  </si>
-  <si>
     <t>[100]</t>
   </si>
   <si>
@@ -185,6 +179,60 @@
   </si>
   <si>
     <t>isnaive_knob_boundaries</t>
+  </si>
+  <si>
+    <t>cell(2,1)</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>[12]</t>
+  </si>
+  <si>
+    <t>[40]</t>
+  </si>
+  <si>
+    <t>[144]</t>
+  </si>
+  <si>
+    <t>[210]</t>
+  </si>
+  <si>
+    <t>temp.congestion_patterns</t>
+  </si>
+  <si>
+    <t>temp.congestion_patterns{1,1}.left_absciss</t>
+  </si>
+  <si>
+    <t>temp.congestion_patterns{1,1}.right_absciss</t>
+  </si>
+  <si>
+    <t>temp.congestion_patterns{1,1}.up_ordinate</t>
+  </si>
+  <si>
+    <t>temp.congestion_patterns{1,1}.down_ordinate</t>
+  </si>
+  <si>
+    <t>temp.congestion_patterns{2,1}.left_absciss</t>
+  </si>
+  <si>
+    <t>temp.congestion_patterns{2,1}.right_absciss</t>
+  </si>
+  <si>
+    <t>temp.congestion_patterns{2,1}.up_ordinate</t>
+  </si>
+  <si>
+    <t>temp.congestion_patterns{2,1}.down_ordinate</t>
+  </si>
+  <si>
+    <t>temp.perfStruct</t>
+  </si>
+  <si>
+    <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\config\210E_joined_frmode_beats.xml')</t>
+  </si>
+  <si>
+    <t>struct('CongestionPattern',0.3,'TVM',0.4,'TVH',0.3)</t>
   </si>
 </sst>
 </file>
@@ -216,10 +264,41 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -228,13 +307,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -253,7 +336,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -295,7 +378,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,7 +413,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -539,355 +622,434 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
-  <si>
-    <t>error_calculator</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
     <t>knobs.knob_boundaries_min</t>
   </si>
@@ -55,9 +52,6 @@
     <t>normopts.SIGMAS</t>
   </si>
   <si>
-    <t>L2</t>
-  </si>
-  <si>
     <t>[0.5;0.5]</t>
   </si>
   <si>
@@ -226,13 +220,16 @@
     <t>temp.congestion_patterns{2,1}.down_ordinate</t>
   </si>
   <si>
-    <t>temp.perfStruct</t>
-  </si>
-  <si>
     <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\config\210E_joined_frmode_beats.xml')</t>
   </si>
   <si>
     <t>struct('CongestionPattern',0.3,'TVM',0.4,'TVH',0.3)</t>
+  </si>
+  <si>
+    <t>temp.erfStruct.performance_calculators</t>
+  </si>
+  <si>
+    <t>temp.erfStruct.error_calculator</t>
   </si>
 </sst>
 </file>
@@ -336,7 +333,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -378,7 +375,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,7 +410,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -622,14 +619,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" style="3" customWidth="1"/>
@@ -641,415 +638,407 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>69</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>60</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>2</v>
+        <v>64</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="B29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>47</v>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="B37" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="B62" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -16,12 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
-    <t>knobs.knob_boundaries_min</t>
-  </si>
-  <si>
-    <t>knobs.knob_boundaries_max</t>
-  </si>
-  <si>
     <t>maxEval</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
     <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\pems_test\processed')</t>
   </si>
   <si>
-    <t>knobs.knob_link_ids</t>
-  </si>
-  <si>
     <t>[4]</t>
   </si>
   <si>
@@ -139,9 +130,6 @@
     <t>[300]</t>
   </si>
   <si>
-    <t>force_manual_knob_boundaries</t>
-  </si>
-  <si>
     <t>[0]</t>
   </si>
   <si>
@@ -172,9 +160,6 @@
     <t>[0.5]</t>
   </si>
   <si>
-    <t>isnaive_knob_boundaries</t>
-  </si>
-  <si>
     <t>cell(2,1)</t>
   </si>
   <si>
@@ -230,6 +215,21 @@
   </si>
   <si>
     <t>temp.erfStruct.error_calculator</t>
+  </si>
+  <si>
+    <t>knobs.link_ids</t>
+  </si>
+  <si>
+    <t>knobs.force_manual_knob_boundaries</t>
+  </si>
+  <si>
+    <t>knobs.boundaries_min</t>
+  </si>
+  <si>
+    <t>knobs.boundaries_max</t>
+  </si>
+  <si>
+    <t>knobs.isnaive_boundaries</t>
   </si>
 </sst>
 </file>
@@ -621,9 +621,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A8" sqref="A8:A11"/>
+      <selection pane="topRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,300 +638,300 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -942,98 +942,98 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -619,11 +619,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A21" sqref="A21"/>
+      <selection pane="topRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,40 +670,31 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>19</v>
@@ -711,334 +702,343 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>39</v>
+        <v>71</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>69</v>
+        <v>45</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="A35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="1"/>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="7680" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="cmaes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
   <si>
     <t>maxEval</t>
   </si>
@@ -97,9 +97,6 @@
     <t>[1.2,0.8;1.1,0.9]</t>
   </si>
   <si>
-    <t>L1</t>
-  </si>
-  <si>
     <t>[2]</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t>scenario_ptr</t>
   </si>
   <si>
-    <t>[100]</t>
-  </si>
-  <si>
     <t>knobs.overevaluation_tolerance_coefficient</t>
   </si>
   <si>
@@ -160,76 +154,94 @@
     <t>[0.5]</t>
   </si>
   <si>
+    <t>temp.congestion_patterns</t>
+  </si>
+  <si>
+    <t>temp.congestion_patterns{1,1}.left_absciss</t>
+  </si>
+  <si>
+    <t>temp.congestion_patterns{1,1}.right_absciss</t>
+  </si>
+  <si>
+    <t>temp.congestion_patterns{1,1}.up_ordinate</t>
+  </si>
+  <si>
+    <t>temp.congestion_patterns{1,1}.down_ordinate</t>
+  </si>
+  <si>
+    <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\config\210E_joined_frmode_beats.xml')</t>
+  </si>
+  <si>
+    <t>temp.erfStruct.performance_calculators</t>
+  </si>
+  <si>
+    <t>temp.erfStruct.error_calculator</t>
+  </si>
+  <si>
+    <t>knobs.link_ids</t>
+  </si>
+  <si>
+    <t>knobs.force_manual_knob_boundaries</t>
+  </si>
+  <si>
+    <t>knobs.boundaries_min</t>
+  </si>
+  <si>
+    <t>knobs.boundaries_max</t>
+  </si>
+  <si>
+    <t>knobs.isnaive_boundaries</t>
+  </si>
+  <si>
+    <t>ErrorCalculator(1,L1,0.5,0.5)</t>
+  </si>
+  <si>
     <t>cell(2,1)</t>
   </si>
   <si>
+    <t>[62]</t>
+  </si>
+  <si>
+    <t>[94]</t>
+  </si>
+  <si>
+    <t>[179]</t>
+  </si>
+  <si>
+    <t>[217]</t>
+  </si>
+  <si>
+    <t>temp.congestion_patterns{2,1}.left_absciss</t>
+  </si>
+  <si>
+    <t>temp.congestion_patterns{2,1}.right_absciss</t>
+  </si>
+  <si>
+    <t>temp.congestion_patterns{2,1}.up_ordinate</t>
+  </si>
+  <si>
+    <t>temp.congestion_patterns{2,1}.down_ordinate</t>
+  </si>
+  <si>
+    <t>[99]</t>
+  </si>
+  <si>
+    <t>[120]</t>
+  </si>
+  <si>
+    <t>[174]</t>
+  </si>
+  <si>
+    <t>[220]</t>
+  </si>
+  <si>
+    <t>struct('CongestionPattern',0.9999,'TVH',0.0001)</t>
+  </si>
+  <si>
     <t>[10]</t>
   </si>
   <si>
-    <t>[12]</t>
-  </si>
-  <si>
-    <t>[40]</t>
-  </si>
-  <si>
-    <t>[144]</t>
-  </si>
-  <si>
-    <t>[210]</t>
-  </si>
-  <si>
-    <t>temp.congestion_patterns</t>
-  </si>
-  <si>
-    <t>temp.congestion_patterns{1,1}.left_absciss</t>
-  </si>
-  <si>
-    <t>temp.congestion_patterns{1,1}.right_absciss</t>
-  </si>
-  <si>
-    <t>temp.congestion_patterns{1,1}.up_ordinate</t>
-  </si>
-  <si>
-    <t>temp.congestion_patterns{1,1}.down_ordinate</t>
-  </si>
-  <si>
-    <t>temp.congestion_patterns{2,1}.left_absciss</t>
-  </si>
-  <si>
-    <t>temp.congestion_patterns{2,1}.right_absciss</t>
-  </si>
-  <si>
-    <t>temp.congestion_patterns{2,1}.up_ordinate</t>
-  </si>
-  <si>
-    <t>temp.congestion_patterns{2,1}.down_ordinate</t>
-  </si>
-  <si>
-    <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\config\210E_joined_frmode_beats.xml')</t>
-  </si>
-  <si>
-    <t>struct('CongestionPattern',0.3,'TVM',0.4,'TVH',0.3)</t>
-  </si>
-  <si>
-    <t>temp.erfStruct.performance_calculators</t>
-  </si>
-  <si>
-    <t>temp.erfStruct.error_calculator</t>
-  </si>
-  <si>
-    <t>knobs.link_ids</t>
-  </si>
-  <si>
-    <t>knobs.force_manual_knob_boundaries</t>
-  </si>
-  <si>
-    <t>knobs.boundaries_min</t>
-  </si>
-  <si>
-    <t>knobs.boundaries_max</t>
-  </si>
-  <si>
-    <t>knobs.isnaive_boundaries</t>
+    <t>[6000]</t>
   </si>
 </sst>
 </file>
@@ -333,7 +345,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -375,7 +387,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -410,7 +422,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -621,12 +633,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A11" sqref="A11"/>
+      <selection pane="topRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" style="3" customWidth="1"/>
@@ -638,114 +650,114 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -759,60 +771,60 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -837,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
@@ -854,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>11</v>
@@ -871,7 +883,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
@@ -888,7 +900,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>13</v>
@@ -905,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>14</v>
@@ -922,13 +934,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>11</v>
@@ -945,7 +957,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>15</v>
@@ -1005,7 +1017,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>11</v>
@@ -1019,7 +1031,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>17</v>
@@ -1030,7 +1042,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>10</v>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="9540" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="cmaes" sheetId="1" r:id="rId1"/>
@@ -97,9 +97,6 @@
     <t>[1.2,0.8;1.1,0.9]</t>
   </si>
   <si>
-    <t>[2]</t>
-  </si>
-  <si>
     <t>pems.days</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>[1.5]</t>
   </si>
   <si>
-    <t>[0.5]</t>
-  </si>
-  <si>
     <t>temp.congestion_patterns</t>
   </si>
   <si>
@@ -235,13 +229,19 @@
     <t>[220]</t>
   </si>
   <si>
-    <t>struct('CongestionPattern',0.9999,'TVH',0.0001)</t>
-  </si>
-  <si>
     <t>[10]</t>
   </si>
   <si>
-    <t>[6000]</t>
+    <t>struct('CongestionPattern',[0.9989,1],'TVH',[0.001,2],'TVM',[0.0001,2])</t>
+  </si>
+  <si>
+    <t>[100]</t>
+  </si>
+  <si>
+    <t>[0.9]</t>
+  </si>
+  <si>
+    <t>[1.1]</t>
   </si>
 </sst>
 </file>
@@ -633,9 +633,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B28" sqref="B28"/>
+      <selection pane="topRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,114 +650,114 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -771,60 +771,60 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
@@ -866,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>11</v>
@@ -883,7 +883,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
@@ -900,7 +900,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>13</v>
@@ -917,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>14</v>
@@ -934,13 +934,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>11</v>
@@ -957,7 +957,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>15</v>
@@ -1017,7 +1017,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>11</v>
@@ -1031,7 +1031,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>17</v>
@@ -1042,7 +1042,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>10</v>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="10470" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="cmaes" sheetId="1" r:id="rId1"/>
@@ -163,9 +163,6 @@
     <t>temp.congestion_patterns{1,1}.down_ordinate</t>
   </si>
   <si>
-    <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\config\210E_joined_frmode_beats.xml')</t>
-  </si>
-  <si>
     <t>temp.erfStruct.performance_calculators</t>
   </si>
   <si>
@@ -232,9 +229,6 @@
     <t>[10]</t>
   </si>
   <si>
-    <t>struct('CongestionPattern',[0.9989,1],'TVH',[0.001,2],'TVM',[0.0001,2])</t>
-  </si>
-  <si>
     <t>[100]</t>
   </si>
   <si>
@@ -242,6 +236,12 @@
   </si>
   <si>
     <t>[1.1]</t>
+  </si>
+  <si>
+    <t>struct('CongestionPattern',[0.34,1],'TVH',[0.33,1],'TVM',[0.33,1])</t>
+  </si>
+  <si>
+    <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\config\210E_joined_frmode.xml')</t>
   </si>
 </sst>
 </file>
@@ -633,9 +633,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B34" sqref="B34"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +653,7 @@
         <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -685,7 +685,7 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -693,7 +693,7 @@
         <v>45</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -701,7 +701,7 @@
         <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -709,7 +709,7 @@
         <v>47</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -717,47 +717,47 @@
         <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -771,15 +771,15 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>37</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>36</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>36</v>
@@ -803,12 +803,12 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -816,7 +816,7 @@
         <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,7 +824,7 @@
         <v>41</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
@@ -866,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>11</v>
@@ -1017,7 +1017,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>11</v>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="12330" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="cmaes" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
   <si>
     <t>maxEval</t>
   </si>
@@ -230,12 +230,6 @@
   </si>
   <si>
     <t>[100]</t>
-  </si>
-  <si>
-    <t>[0.9]</t>
-  </si>
-  <si>
-    <t>[1.1]</t>
   </si>
   <si>
     <t>struct('CongestionPattern',[0.34,1],'TVH',[0.33,1],'TVM',[0.33,1])</t>
@@ -633,9 +627,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +647,7 @@
         <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -757,7 +751,7 @@
         <v>49</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -816,7 +810,7 @@
         <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,7 +818,7 @@
         <v>41</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12330" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="14190" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="cmaes" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
   <si>
     <t>maxEval</t>
   </si>
@@ -145,9 +145,6 @@
     <t>knobs.underevaluation_tolerance_coefficient</t>
   </si>
   <si>
-    <t>[1.5]</t>
-  </si>
-  <si>
     <t>temp.congestion_patterns</t>
   </si>
   <si>
@@ -229,13 +226,22 @@
     <t>[10]</t>
   </si>
   <si>
-    <t>[100]</t>
-  </si>
-  <si>
     <t>struct('CongestionPattern',[0.34,1],'TVH',[0.33,1],'TVM',[0.33,1])</t>
   </si>
   <si>
     <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\config\210E_joined_frmode.xml')</t>
+  </si>
+  <si>
+    <t>[1.3]</t>
+  </si>
+  <si>
+    <t>[0.7]</t>
+  </si>
+  <si>
+    <t>[6000]</t>
+  </si>
+  <si>
+    <t>[2.5]</t>
   </si>
 </sst>
 </file>
@@ -627,9 +633,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B24" sqref="B24"/>
+      <selection pane="topRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +653,7 @@
         <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -676,82 +682,82 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -765,15 +771,15 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>37</v>
@@ -781,7 +787,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>36</v>
@@ -789,7 +795,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>36</v>
@@ -797,12 +803,12 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -810,7 +816,7 @@
         <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -818,7 +824,7 @@
         <v>41</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -843,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
@@ -860,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>11</v>
@@ -951,7 +957,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>15</v>
@@ -1011,7 +1017,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>11</v>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14190" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="15120" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="cmaes" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
   <si>
     <t>maxEval</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>[0.7]</t>
-  </si>
-  <si>
-    <t>[6000]</t>
   </si>
   <si>
     <t>[2.5]</t>
@@ -635,7 +632,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B23" sqref="B23"/>
+      <selection pane="topRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
@@ -866,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>11</v>
@@ -957,7 +954,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>15</v>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="18840" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="cmaes" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="75">
   <si>
     <t>maxEval</t>
   </si>
@@ -226,9 +226,6 @@
     <t>[10]</t>
   </si>
   <si>
-    <t>struct('CongestionPattern',[0.34,1],'TVH',[0.33,1],'TVM',[0.33,1])</t>
-  </si>
-  <si>
     <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\config\210E_joined_frmode.xml')</t>
   </si>
   <si>
@@ -238,7 +235,10 @@
     <t>[0.7]</t>
   </si>
   <si>
-    <t>[2.5]</t>
+    <t>struct('CongestionPattern',[0.5,1],'TVH',[0.5,1])</t>
+  </si>
+  <si>
+    <t>[3000]</t>
   </si>
 </sst>
 </file>
@@ -630,7 +630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B14" sqref="B14"/>
     </sheetView>
@@ -650,7 +650,10 @@
         <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -660,6 +663,9 @@
       <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -668,6 +674,9 @@
       <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -676,6 +685,9 @@
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -684,6 +696,9 @@
       <c r="B5" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -692,6 +707,9 @@
       <c r="B6" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -700,6 +718,9 @@
       <c r="B7" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -708,6 +729,9 @@
       <c r="B8" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -716,6 +740,9 @@
       <c r="B9" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -724,6 +751,9 @@
       <c r="B10" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -732,6 +762,9 @@
       <c r="B11" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="C11" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -740,6 +773,9 @@
       <c r="B12" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="C12" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -748,16 +784,19 @@
       <c r="B13" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="C13" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>20</v>
@@ -773,12 +812,21 @@
       <c r="B15" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -789,6 +837,9 @@
       <c r="B18" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
@@ -797,23 +848,31 @@
       <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>52</v>
       </c>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -821,8 +880,14 @@
         <v>41</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>72</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -831,7 +896,7 @@
       <c r="B25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -846,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>74</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
@@ -863,10 +928,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>74</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
@@ -882,8 +947,8 @@
       <c r="B28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>12</v>
+      <c r="C28" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>12</v>
@@ -891,6 +956,9 @@
       <c r="E28" s="1" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
@@ -899,8 +967,8 @@
       <c r="B30" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>13</v>
+      <c r="C30" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>13</v>
@@ -916,8 +984,8 @@
       <c r="B31" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>14</v>
+      <c r="C31" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>14</v>
@@ -933,7 +1001,7 @@
       <c r="B32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -945,7 +1013,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
-      <c r="C33" s="2"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
@@ -954,10 +1022,10 @@
         <v>6</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>15</v>
@@ -973,7 +1041,7 @@
       <c r="B35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -999,7 +1067,7 @@
       <c r="B36" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -1016,8 +1084,8 @@
       <c r="B37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>11</v>
+      <c r="C37" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>11</v>
@@ -1030,6 +1098,9 @@
       <c r="B38" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="C38" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="E38" s="1" t="s">
         <v>17</v>
       </c>
@@ -1039,6 +1110,9 @@
         <v>9</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E39" s="1" t="s">

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="30930" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="cmaes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="71">
   <si>
     <t>maxEval</t>
   </si>
@@ -205,15 +205,9 @@
     <t>[2]</t>
   </si>
   <si>
-    <t>[2.5]</t>
-  </si>
-  <si>
     <t>[3]</t>
   </si>
   <si>
-    <t>[3.5]</t>
-  </si>
-  <si>
     <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\config\210E_joined.xml')</t>
   </si>
   <si>
@@ -230,6 +224,9 @@
   </si>
   <si>
     <t>[1000]</t>
+  </si>
+  <si>
+    <t>[5]</t>
   </si>
 </sst>
 </file>
@@ -332,7 +329,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -374,7 +371,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,7 +406,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -618,86 +615,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U60"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" style="2" customWidth="1"/>
-    <col min="3" max="6" width="31.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="75.7109375" style="2" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="75.7109375" style="2" customWidth="1"/>
-    <col min="12" max="15" width="31.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="75.7109375" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="5" width="31.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" style="2" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="35.7109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="31.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="29.28515625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -749,14 +740,8 @@
       <c r="Q2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -808,14 +793,8 @@
       <c r="Q3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -867,14 +846,8 @@
       <c r="Q4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -926,14 +899,8 @@
       <c r="Q5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -985,14 +952,8 @@
       <c r="Q6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
@@ -1044,14 +1005,8 @@
       <c r="Q7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
@@ -1103,14 +1058,8 @@
       <c r="Q8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -1162,14 +1111,8 @@
       <c r="Q9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>50</v>
       </c>
@@ -1221,14 +1164,8 @@
       <c r="Q10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
@@ -1280,14 +1217,8 @@
       <c r="Q11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="R11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>52</v>
       </c>
@@ -1339,14 +1270,8 @@
       <c r="Q12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="R12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>53</v>
       </c>
@@ -1398,73 +1323,61 @@
       <c r="Q13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="R13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
@@ -1516,30 +1429,22 @@
       <c r="Q15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-    </row>
-    <row r="17" spans="1:21" ht="300" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:18" ht="300" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
@@ -1591,14 +1496,8 @@
       <c r="Q17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>40</v>
       </c>
@@ -1650,14 +1549,8 @@
       <c r="Q18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>43</v>
       </c>
@@ -1709,52 +1602,42 @@
       <c r="Q19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>31</v>
       </c>
@@ -1783,37 +1666,31 @@
         <v>60</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -1842,53 +1719,45 @@
         <v>59</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -1940,75 +1809,62 @@
       <c r="Q25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>1</v>
       </c>
@@ -2060,14 +1916,8 @@
       <c r="Q27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>2</v>
       </c>
@@ -2119,30 +1969,22 @@
       <c r="Q28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2194,14 +2036,8 @@
       <c r="Q30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R30" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S30" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>4</v>
       </c>
@@ -2253,14 +2089,8 @@
       <c r="Q31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="S31" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
@@ -2312,14 +2142,8 @@
       <c r="Q32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R32" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="S32" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2336,10 +2160,8 @@
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>6</v>
       </c>
@@ -2350,55 +2172,49 @@
         <v>63</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="I34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="L34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="O34" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="O34" s="2" t="s">
+      <c r="P34" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P34" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="Q34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>13</v>
       </c>
@@ -2450,14 +2266,8 @@
       <c r="Q35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S35" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>15</v>
       </c>
@@ -2509,14 +2319,8 @@
       <c r="Q36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S36" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
@@ -2568,14 +2372,8 @@
       <c r="Q37" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="R37" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>8</v>
       </c>
@@ -2627,14 +2425,8 @@
       <c r="Q38" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>9</v>
       </c>
@@ -2686,19 +2478,13 @@
       <c r="Q39" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="P60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="N60" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -154,9 +154,6 @@
     <t>cell(2,1)</t>
   </si>
   <si>
-    <t>[62]</t>
-  </si>
-  <si>
     <t>[94]</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>temp.congestion_patterns{2,1}.down_ordinate</t>
   </si>
   <si>
-    <t>[99]</t>
-  </si>
-  <si>
     <t>[120]</t>
   </si>
   <si>
@@ -227,6 +221,12 @@
   </si>
   <si>
     <t>[5]</t>
+  </si>
+  <si>
+    <t>[60]</t>
+  </si>
+  <si>
+    <t>[100]</t>
   </si>
 </sst>
 </file>
@@ -618,8 +618,8 @@
   <dimension ref="A1:R60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q14" sqref="Q14"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,52 +640,52 @@
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -905,52 +905,52 @@
         <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -958,52 +958,52 @@
         <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1011,52 +1011,52 @@
         <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1064,264 +1064,264 @@
         <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1329,52 +1329,52 @@
         <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1642,52 +1642,52 @@
         <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -1695,52 +1695,52 @@
         <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -1815,52 +1815,52 @@
         <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R26" s="2"/>
     </row>
@@ -1869,52 +1869,52 @@
         <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -2166,52 +2166,52 @@
         <v>6</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -2325,52 +2325,52 @@
         <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="30930" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="32790" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="cmaes" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="72">
   <si>
     <t>maxEval</t>
   </si>
@@ -37,9 +37,6 @@
     <t>insigma</t>
   </si>
   <si>
-    <t>population_size</t>
-  </si>
-  <si>
     <t>normopts.CENTERS</t>
   </si>
   <si>
@@ -184,9 +181,6 @@
     <t>[220]</t>
   </si>
   <si>
-    <t>[10]</t>
-  </si>
-  <si>
     <t>[1.3]</t>
   </si>
   <si>
@@ -227,6 +221,15 @@
   </si>
   <si>
     <t>[100]</t>
+  </si>
+  <si>
+    <t>[ -873337960;-781754904;-126537863;-126499580;-24558231;-24029866;-24026218;126499392]</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>initial_population_size</t>
   </si>
 </sst>
 </file>
@@ -329,7 +332,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -371,7 +374,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,7 +409,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -615,20 +618,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R60"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P37" sqref="P37:S37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" style="2" customWidth="1"/>
     <col min="3" max="5" width="31.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" style="2" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="1"/>
+    <col min="7" max="7" width="23.140625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="35.7109375" style="2" customWidth="1"/>
     <col min="11" max="13" width="31.85546875" style="1" customWidth="1"/>
     <col min="14" max="14" width="29.28515625" style="2" customWidth="1"/>
@@ -637,797 +641,797 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1444,168 +1448,183 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:18" ht="300" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="240" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1620,9 +1639,9 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1637,113 +1656,113 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1757,220 +1776,220 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R26" s="2"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1984,166 +2003,166 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2161,322 +2180,328 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="B36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="B38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="M39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="N39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="O39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P38" s="2" t="s">
+      <c r="P39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="Q39" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="32790" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="36510" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="cmaes" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="90">
   <si>
     <t>maxEval</t>
   </si>
@@ -91,9 +91,6 @@
     <t>[0]</t>
   </si>
   <si>
-    <t>[ -873337960;128793003;-781754904;-128793036;-126537863;-126499580;-24558231;-24029866;-24026218;126499392;756090723]</t>
-  </si>
-  <si>
     <t>[1.25;1.25;1.25;1.25;1.25;1.25;1.25;1.25;1.25;1.25;1.25]</t>
   </si>
   <si>
@@ -223,13 +220,70 @@
     <t>[100]</t>
   </si>
   <si>
-    <t>[ -873337960;-781754904;-126537863;-126499580;-24558231;-24029866;-24026218;126499392]</t>
+    <t>initial_population_size</t>
+  </si>
+  <si>
+    <t>[-781754904;-126537863;-126499580;-24558231;-24029866;-24026218;126499392]</t>
+  </si>
+  <si>
+    <t>[-873337960;-781754904;-126537863;-126499580;-24558231;-24029866;-24026218;126499392]</t>
   </si>
   <si>
     <t>[8]</t>
   </si>
   <si>
-    <t>initial_population_size</t>
+    <t>struct('CongestionPattern',[1,1],'TVM',[0,1])</t>
+  </si>
+  <si>
+    <t>[62]</t>
+  </si>
+  <si>
+    <t>[93]</t>
+  </si>
+  <si>
+    <t>[203]</t>
+  </si>
+  <si>
+    <t>[236]</t>
+  </si>
+  <si>
+    <t>[97]</t>
+  </si>
+  <si>
+    <t>[114]</t>
+  </si>
+  <si>
+    <t>[202]</t>
+  </si>
+  <si>
+    <t>[254]</t>
+  </si>
+  <si>
+    <t>[118]</t>
+  </si>
+  <si>
+    <t>[134]</t>
+  </si>
+  <si>
+    <t>[199]</t>
+  </si>
+  <si>
+    <t>[267]</t>
+  </si>
+  <si>
+    <t>cell(3,1)</t>
+  </si>
+  <si>
+    <t>temp.congestion_patterns{3,1}.left_absciss</t>
+  </si>
+  <si>
+    <t>temp.congestion_patterns{3,1}.up_ordinate</t>
+  </si>
+  <si>
+    <t>temp.congestion_patterns{3,1}.down_ordinate</t>
+  </si>
+  <si>
+    <t>temp.congestion_patterns{3,1}.right_absciss</t>
   </si>
 </sst>
 </file>
@@ -618,11 +672,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P37" sqref="P37:S37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,55 +695,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -853,779 +907,800 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="1:22" ht="240" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>69</v>
+        <v>88</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1639,130 +1714,184 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1778,738 +1907,878 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="R26" s="2"/>
+        <v>62</v>
+      </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R30" s="2"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="L36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="M36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N32" s="4" t="s">
+      <c r="N36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O32" s="4" t="s">
+      <c r="O36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P32" s="4" t="s">
+      <c r="P36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q32" s="4" t="s">
+      <c r="Q36" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="I38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K38" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H34" s="2" t="s">
+      <c r="L38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J34" s="2" t="s">
+      <c r="M38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O38" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L34" s="2" t="s">
+      <c r="P38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="Q38" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="M39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N35" s="2" t="s">
+      <c r="N39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="O39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P35" s="2" t="s">
+      <c r="P39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="Q39" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="M40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N36" s="2" t="s">
+      <c r="N40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="O40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P36" s="2" t="s">
+      <c r="P40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q36" s="2" t="s">
+      <c r="Q40" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="C41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="M43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="N43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="O43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P38" s="2" t="s">
+      <c r="P43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="Q43" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="N60" s="1"/>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="N64" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="36510" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="37440" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="cmaes" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="92">
   <si>
     <t>maxEval</t>
   </si>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <t>temp.congestion_patterns{3,1}.right_absciss</t>
+  </si>
+  <si>
+    <t>multiple_sensor_vds_to_use</t>
+  </si>
+  <si>
+    <t>[717595,765477,717679,717683,774035]</t>
   </si>
 </sst>
 </file>
@@ -674,9 +680,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B17" sqref="B17"/>
+      <selection pane="topRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,10 +1846,10 @@
         <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>24</v>
@@ -2773,6 +2779,14 @@
         <v>26</v>
       </c>
     </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="1"/>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="37440" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="47670" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="cmaes" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="96">
   <si>
     <t>maxEval</t>
   </si>
@@ -157,139 +157,152 @@
     <t>[217]</t>
   </si>
   <si>
+    <t>[1.3]</t>
+  </si>
+  <si>
+    <t>[0.7]</t>
+  </si>
+  <si>
+    <t>[3000]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\config\210E_joined.xml')</t>
+  </si>
+  <si>
+    <t>struct('CongestionPattern',[0.5,1],'TVH',[0.25,1],'TVM',[0,1],'KnobsDistance',[0.25,2])</t>
+  </si>
+  <si>
+    <t>struct('CongestionPattern',[0.5,1],'TVH',[0.5,1],'TVM',[0,1])</t>
+  </si>
+  <si>
+    <t>[0.5]</t>
+  </si>
+  <si>
+    <t>[1.5]</t>
+  </si>
+  <si>
+    <t>[1000]</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[60]</t>
+  </si>
+  <si>
+    <t>initial_population_size</t>
+  </si>
+  <si>
+    <t>[-781754904;-126537863;-126499580;-24558231;-24029866;-24026218;126499392]</t>
+  </si>
+  <si>
+    <t>multiple_sensor_vds_to_use</t>
+  </si>
+  <si>
+    <t>[717595,765477,717679,717683,774035]</t>
+  </si>
+  <si>
+    <t>vds_sensors_to_delete</t>
+  </si>
+  <si>
+    <t>[16]</t>
+  </si>
+  <si>
+    <t>[2.5]</t>
+  </si>
+  <si>
+    <t>current_day</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\beats_scenarios\210E_tuesdays.xml')</t>
+  </si>
+  <si>
+    <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\pems_data\210E\_processed')</t>
+  </si>
+  <si>
+    <t>cell(3,1)</t>
+  </si>
+  <si>
+    <t>[datenum('2014/10/14'),datenum('2014/10/21'),datenum('2014/11/18'),datenum('2014/11/25'),datenum('2014/12/16')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-781754904;-126537863;-126499580;-24558231;-24029866;-24026218;126499392]
+</t>
+  </si>
+  <si>
+    <t>[39]</t>
+  </si>
+  <si>
+    <t>[130]</t>
+  </si>
+  <si>
+    <t>[169]</t>
+  </si>
+  <si>
+    <t>[236]</t>
+  </si>
+  <si>
     <t>temp.congestion_patterns{2,1}.left_absciss</t>
   </si>
   <si>
     <t>temp.congestion_patterns{2,1}.right_absciss</t>
   </si>
   <si>
+    <t>temp.congestion_patterns{3,1}.up_ordinate</t>
+  </si>
+  <si>
     <t>temp.congestion_patterns{2,1}.up_ordinate</t>
   </si>
   <si>
     <t>temp.congestion_patterns{2,1}.down_ordinate</t>
   </si>
   <si>
-    <t>[120]</t>
-  </si>
-  <si>
-    <t>[174]</t>
-  </si>
-  <si>
-    <t>[220]</t>
-  </si>
-  <si>
-    <t>[1.3]</t>
-  </si>
-  <si>
-    <t>[0.7]</t>
-  </si>
-  <si>
-    <t>[3000]</t>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\config\210E_joined.xml')</t>
-  </si>
-  <si>
-    <t>struct('CongestionPattern',[0.5,1],'TVH',[0.25,1],'TVM',[0,1],'KnobsDistance',[0.25,2])</t>
-  </si>
-  <si>
-    <t>struct('CongestionPattern',[0.5,1],'TVH',[0.5,1],'TVM',[0,1])</t>
-  </si>
-  <si>
-    <t>[0.5]</t>
-  </si>
-  <si>
-    <t>[1.5]</t>
-  </si>
-  <si>
-    <t>[1000]</t>
-  </si>
-  <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>[60]</t>
-  </si>
-  <si>
-    <t>[100]</t>
-  </si>
-  <si>
-    <t>initial_population_size</t>
-  </si>
-  <si>
-    <t>[-781754904;-126537863;-126499580;-24558231;-24029866;-24026218;126499392]</t>
-  </si>
-  <si>
-    <t>[-873337960;-781754904;-126537863;-126499580;-24558231;-24029866;-24026218;126499392]</t>
-  </si>
-  <si>
-    <t>[8]</t>
-  </si>
-  <si>
-    <t>struct('CongestionPattern',[1,1],'TVM',[0,1])</t>
-  </si>
-  <si>
-    <t>[62]</t>
-  </si>
-  <si>
-    <t>[93]</t>
-  </si>
-  <si>
-    <t>[203]</t>
-  </si>
-  <si>
-    <t>[236]</t>
-  </si>
-  <si>
-    <t>[97]</t>
-  </si>
-  <si>
-    <t>[114]</t>
-  </si>
-  <si>
-    <t>[202]</t>
-  </si>
-  <si>
-    <t>[254]</t>
+    <t>temp.congestion_patterns{3,1}.left_absciss</t>
+  </si>
+  <si>
+    <t>temp.congestion_patterns{3,1}.right_absciss</t>
+  </si>
+  <si>
+    <t>temp.congestion_patterns{3,1}.down_ordinate</t>
+  </si>
+  <si>
+    <t>[50]</t>
+  </si>
+  <si>
+    <t>[66]</t>
   </si>
   <si>
     <t>[118]</t>
   </si>
   <si>
-    <t>[134]</t>
-  </si>
-  <si>
-    <t>[199]</t>
-  </si>
-  <si>
-    <t>[267]</t>
-  </si>
-  <si>
-    <t>cell(3,1)</t>
-  </si>
-  <si>
-    <t>temp.congestion_patterns{3,1}.left_absciss</t>
-  </si>
-  <si>
-    <t>temp.congestion_patterns{3,1}.up_ordinate</t>
-  </si>
-  <si>
-    <t>temp.congestion_patterns{3,1}.down_ordinate</t>
-  </si>
-  <si>
-    <t>temp.congestion_patterns{3,1}.right_absciss</t>
-  </si>
-  <si>
-    <t>multiple_sensor_vds_to_use</t>
-  </si>
-  <si>
-    <t>[717595,765477,717679,717683,774035]</t>
+    <t>[138]</t>
+  </si>
+  <si>
+    <t>[104]</t>
+  </si>
+  <si>
+    <t>[135]</t>
+  </si>
+  <si>
+    <t>[119]</t>
+  </si>
+  <si>
+    <t>[151]</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>struct('CongestionPattern',[0.9,1.2],'TVH',[0.05,1],'KnobsDistance',[0.05,2])</t>
   </si>
 </sst>
 </file>
@@ -678,18 +691,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="2" customWidth="1"/>
-    <col min="3" max="5" width="31.85546875" style="1" customWidth="1"/>
+    <col min="2" max="5" width="75.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="23.140625" style="1" customWidth="1"/>
     <col min="8" max="9" width="9.140625" style="1"/>
@@ -704,52 +716,52 @@
         <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -757,16 +769,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>16</v>
@@ -863,16 +875,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>20</v>
@@ -916,16 +928,16 @@
         <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>43</v>
@@ -969,52 +981,52 @@
         <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1022,16 +1034,16 @@
         <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>44</v>
@@ -1075,16 +1087,16 @@
         <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>45</v>
@@ -1128,16 +1140,16 @@
         <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>46</v>
@@ -1178,479 +1190,479 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>61</v>
+      <c r="B18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -1707,9 +1719,21 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="A20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1720,72 +1744,72 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -1898,9 +1922,6 @@
       <c r="A24" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1915,9 +1936,6 @@
       <c r="A25" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1936,7 +1954,7 @@
         <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>55</v>
@@ -1945,40 +1963,40 @@
         <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="N26" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -1986,58 +2004,55 @@
         <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -2053,10 +2068,10 @@
         <v>10</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>11</v>
@@ -2106,52 +2121,52 @@
         <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="R30" s="2"/>
     </row>
@@ -2160,52 +2175,52 @@
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -2262,9 +2277,6 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -2457,52 +2469,52 @@
         <v>6</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -2613,19 +2625,19 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>18</v>
@@ -2781,18 +2793,212 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="1"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="1"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="1"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="1"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="1"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="1"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="1"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="1"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="1"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="1"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="1"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="J64" s="1"/>
       <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="1"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="1"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="1"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="1"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="1"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="47670" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="54180" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="cmaes" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="78">
   <si>
     <t>maxEval</t>
   </si>
@@ -64,9 +64,6 @@
     <t>pems.days</t>
   </si>
   <si>
-    <t>datenum(2014,10,1):datenum(2014,10,10)</t>
-  </si>
-  <si>
     <t>pems.district</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>pems.processed_folder</t>
   </si>
   <si>
-    <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\pems_test\processed')</t>
-  </si>
-  <si>
     <t>[4]</t>
   </si>
   <si>
@@ -145,24 +139,6 @@
     <t>ErrorCalculator(1,L1,0.5,0.5)</t>
   </si>
   <si>
-    <t>cell(2,1)</t>
-  </si>
-  <si>
-    <t>[94]</t>
-  </si>
-  <si>
-    <t>[179]</t>
-  </si>
-  <si>
-    <t>[217]</t>
-  </si>
-  <si>
-    <t>[1.3]</t>
-  </si>
-  <si>
-    <t>[0.7]</t>
-  </si>
-  <si>
     <t>[3000]</t>
   </si>
   <si>
@@ -172,15 +148,6 @@
     <t>[3]</t>
   </si>
   <si>
-    <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\config\210E_joined.xml')</t>
-  </si>
-  <si>
-    <t>struct('CongestionPattern',[0.5,1],'TVH',[0.25,1],'TVM',[0,1],'KnobsDistance',[0.25,2])</t>
-  </si>
-  <si>
-    <t>struct('CongestionPattern',[0.5,1],'TVH',[0.5,1],'TVM',[0,1])</t>
-  </si>
-  <si>
     <t>[0.5]</t>
   </si>
   <si>
@@ -190,12 +157,6 @@
     <t>[1000]</t>
   </si>
   <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>[60]</t>
-  </si>
-  <si>
     <t>initial_population_size</t>
   </si>
   <si>
@@ -229,19 +190,9 @@
     <t>Utilities.char2char('C:\Users\Felix\code\autoCalibrationProject\pems_data\210E\_processed')</t>
   </si>
   <si>
-    <t>cell(3,1)</t>
-  </si>
-  <si>
     <t>[datenum('2014/10/14'),datenum('2014/10/21'),datenum('2014/11/18'),datenum('2014/11/25'),datenum('2014/12/16')]</t>
   </si>
   <si>
-    <t xml:space="preserve">[-781754904;-126537863;-126499580;-24558231;-24029866;-24026218;126499392]
-</t>
-  </si>
-  <si>
-    <t>[39]</t>
-  </si>
-  <si>
     <t>[130]</t>
   </si>
   <si>
@@ -275,34 +226,28 @@
     <t>temp.congestion_patterns{3,1}.down_ordinate</t>
   </si>
   <si>
-    <t>[50]</t>
-  </si>
-  <si>
-    <t>[66]</t>
-  </si>
-  <si>
-    <t>[118]</t>
-  </si>
-  <si>
-    <t>[138]</t>
-  </si>
-  <si>
-    <t>[104]</t>
-  </si>
-  <si>
-    <t>[135]</t>
-  </si>
-  <si>
-    <t>[119]</t>
-  </si>
-  <si>
-    <t>[151]</t>
-  </si>
-  <si>
     <t>[6]</t>
   </si>
   <si>
-    <t>struct('CongestionPattern',[0.9,1.2],'TVH',[0.05,1],'KnobsDistance',[0.05,2])</t>
+    <t>cell(1,1)</t>
+  </si>
+  <si>
+    <t>struct('CongestionPattern',[0.5,1.2],'TVH',[0.4,1],'KnobsDistance',[0.1,2],'TVM',[0,1])</t>
+  </si>
+  <si>
+    <t>[128793003;-781754904;-781749995;-126537863;-126499580;-24558231;-24029866;-24026218;126499392]</t>
+  </si>
+  <si>
+    <t>[24]</t>
+  </si>
+  <si>
+    <t>[0.75]</t>
+  </si>
+  <si>
+    <t>[0.33]</t>
+  </si>
+  <si>
+    <t>[1800]</t>
   </si>
 </sst>
 </file>
@@ -693,239 +638,281 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.42578125" style="5" customWidth="1"/>
-    <col min="2" max="5" width="75.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="35.7109375" style="2" customWidth="1"/>
-    <col min="11" max="13" width="31.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="21" width="75.7109375" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>71</v>
@@ -940,45 +927,57 @@
         <v>71</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>74</v>
@@ -993,760 +992,487 @@
         <v>74</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="N7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="21" spans="1:22" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>73</v>
@@ -1761,307 +1487,326 @@
         <v>73</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -2115,112 +1860,147 @@
       <c r="Q29" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="R29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="R30" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -2228,225 +2008,262 @@
         <v>2</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2463,61 +2280,77 @@
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>12</v>
       </c>
@@ -2569,8 +2402,20 @@
       <c r="Q39" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>14</v>
       </c>
@@ -2622,383 +2467,696 @@
       <c r="Q40" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U43" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="I54" s="2"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="M54" s="2"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
       <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="I55" s="2"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
       <c r="J55" s="1"/>
-      <c r="M55" s="2"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
       <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="I56" s="2"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-      <c r="M56" s="2"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
       <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="I57" s="2"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="M57" s="2"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
       <c r="N57" s="1"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="I58" s="2"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="M58" s="2"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
       <c r="N58" s="1"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="I59" s="2"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
       <c r="J59" s="1"/>
-      <c r="M59" s="2"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
       <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="I60" s="2"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
       <c r="J60" s="1"/>
-      <c r="M60" s="2"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
       <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="I61" s="2"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
       <c r="J61" s="1"/>
-      <c r="M61" s="2"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
       <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="I62" s="2"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
       <c r="J62" s="1"/>
-      <c r="M62" s="2"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
       <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="I63" s="2"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
       <c r="J63" s="1"/>
-      <c r="M63" s="2"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
       <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
       <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="I65" s="2"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
       <c r="J65" s="1"/>
-      <c r="M65" s="2"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
       <c r="N65" s="1"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="I66" s="2"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
       <c r="J66" s="1"/>
-      <c r="M66" s="2"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
       <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="I67" s="2"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
       <c r="J67" s="1"/>
-      <c r="M67" s="2"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
       <c r="N67" s="1"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="I68" s="2"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
       <c r="J68" s="1"/>
-      <c r="M68" s="2"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
       <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="I69" s="2"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
       <c r="J69" s="1"/>
-      <c r="M69" s="2"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
       <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="54180" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="58830" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="cmaes" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="82">
   <si>
     <t>maxEval</t>
   </si>
@@ -100,21 +100,6 @@
     <t>knobs.underevaluation_tolerance_coefficient</t>
   </si>
   <si>
-    <t>temp.congestion_patterns</t>
-  </si>
-  <si>
-    <t>temp.congestion_patterns{1,1}.left_absciss</t>
-  </si>
-  <si>
-    <t>temp.congestion_patterns{1,1}.right_absciss</t>
-  </si>
-  <si>
-    <t>temp.congestion_patterns{1,1}.up_ordinate</t>
-  </si>
-  <si>
-    <t>temp.congestion_patterns{1,1}.down_ordinate</t>
-  </si>
-  <si>
     <t>temp.erfStruct.performance_calculators</t>
   </si>
   <si>
@@ -202,30 +187,6 @@
     <t>[236]</t>
   </si>
   <si>
-    <t>temp.congestion_patterns{2,1}.left_absciss</t>
-  </si>
-  <si>
-    <t>temp.congestion_patterns{2,1}.right_absciss</t>
-  </si>
-  <si>
-    <t>temp.congestion_patterns{3,1}.up_ordinate</t>
-  </si>
-  <si>
-    <t>temp.congestion_patterns{2,1}.up_ordinate</t>
-  </si>
-  <si>
-    <t>temp.congestion_patterns{2,1}.down_ordinate</t>
-  </si>
-  <si>
-    <t>temp.congestion_patterns{3,1}.left_absciss</t>
-  </si>
-  <si>
-    <t>temp.congestion_patterns{3,1}.right_absciss</t>
-  </si>
-  <si>
-    <t>temp.congestion_patterns{3,1}.down_ordinate</t>
-  </si>
-  <si>
     <t>[6]</t>
   </si>
   <si>
@@ -244,10 +205,61 @@
     <t>[0.75]</t>
   </si>
   <si>
+    <t>[1800]</t>
+  </si>
+  <si>
+    <t>[11]</t>
+  </si>
+  <si>
+    <t>[769774,717691,761177,772857 ,772872,770172]</t>
+  </si>
+  <si>
+    <t>[24162804;128793003;-781754904;-781749995;-126537863;-126499580;-24558231;-24031553;-24029866;-24026218;126499392;756090723]</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
     <t>[0.33]</t>
   </si>
   <si>
-    <t>[1800]</t>
+    <t>temp.congestionPattern.rectangles</t>
+  </si>
+  <si>
+    <t>temp.congestion_pattern.rectangles{1,1}.left_absciss</t>
+  </si>
+  <si>
+    <t>temp.congestion_pattern.rectangles{1,1}.right_absciss</t>
+  </si>
+  <si>
+    <t>temp.congestion_pattern.rectangles{1,1}.up_ordinate</t>
+  </si>
+  <si>
+    <t>temp.congestion_pattern.rectangles{1,1}.down_ordinate</t>
+  </si>
+  <si>
+    <t>temp.congestion_pattern.rectangles{2,1}.right_absciss</t>
+  </si>
+  <si>
+    <t>temp.congestion_pattern.rectangles{2,1}.up_ordinate</t>
+  </si>
+  <si>
+    <t>temp.congestion_pattern.rectangles{2,1}.down_ordinate</t>
+  </si>
+  <si>
+    <t>temp.congestion_pattern.rectangles{3,1}.left_absciss</t>
+  </si>
+  <si>
+    <t>temp.congestion_pattern.rectangles{3,1}.right_absciss</t>
+  </si>
+  <si>
+    <t>temp.congestion_pattern.rectangles{3,1}.up_ordinate</t>
+  </si>
+  <si>
+    <t>temp.congestion_pattern.rectangles{3,1}.down_ordinate</t>
+  </si>
+  <si>
+    <t>temp.congestion_pattern.rectangles{2,1}.left_absciss</t>
   </si>
 </sst>
 </file>
@@ -640,7 +652,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A38" sqref="A38"/>
+      <selection pane="topRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,64 +667,64 @@
         <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -720,64 +732,64 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -850,697 +862,697 @@
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>22</v>
@@ -1605,7 +1617,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
@@ -1670,12 +1682,12 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -1683,64 +1695,64 @@
         <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -1748,64 +1760,64 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -1878,64 +1890,64 @@
         <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
@@ -1943,64 +1955,64 @@
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -2290,64 +2302,64 @@
         <v>6</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -2482,67 +2494,67 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -2677,132 +2689,132 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="58830" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="63480" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="cmaes" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="92">
   <si>
     <t>maxEval</t>
   </si>
@@ -100,12 +100,6 @@
     <t>knobs.underevaluation_tolerance_coefficient</t>
   </si>
   <si>
-    <t>temp.erfStruct.performance_calculators</t>
-  </si>
-  <si>
-    <t>temp.erfStruct.error_calculator</t>
-  </si>
-  <si>
     <t>knobs.link_ids</t>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t>knobs.isnaive_boundaries</t>
   </si>
   <si>
-    <t>ErrorCalculator(1,L1,0.5,0.5)</t>
-  </si>
-  <si>
     <t>[3000]</t>
   </si>
   <si>
@@ -136,9 +127,6 @@
     <t>[0.5]</t>
   </si>
   <si>
-    <t>[1.5]</t>
-  </si>
-  <si>
     <t>[1000]</t>
   </si>
   <si>
@@ -202,64 +190,106 @@
     <t>[24]</t>
   </si>
   <si>
+    <t>[769774,717691,761177,772857 ,772872,770172]</t>
+  </si>
+  <si>
+    <t>[24162804;128793003;-781754904;-781749995;-126537863;-126499580;-24558231;-24031553;-24029866;-24026218;126499392;756090723]</t>
+  </si>
+  <si>
+    <t>settings.congestion_pattern.rectangles{3,1}.left_absciss</t>
+  </si>
+  <si>
+    <t>settings.congestion_pattern.rectangles{3,1}.right_absciss</t>
+  </si>
+  <si>
+    <t>settings.congestion_pattern.rectangles{3,1}.up_ordinate</t>
+  </si>
+  <si>
+    <t>settings.congestion_pattern.rectangles{3,1}.down_ordinate</t>
+  </si>
+  <si>
+    <t>settings.congestion_pattern.false_positive_coefficient</t>
+  </si>
+  <si>
+    <t>settings.congestion_pattern.false_negative_coefficient</t>
+  </si>
+  <si>
+    <t>settings.congestionPattern.rectangles</t>
+  </si>
+  <si>
+    <t>settings.congestion_pattern.rectangles{1,1}.left_absciss</t>
+  </si>
+  <si>
+    <t>settings.congestion_pattern.rectangles{1,1}.right_absciss</t>
+  </si>
+  <si>
+    <t>settings.congestion_pattern.rectangles{1,1}.up_ordinate</t>
+  </si>
+  <si>
+    <t>settings.congestion_pattern.rectangles{1,1}.down_ordinate</t>
+  </si>
+  <si>
+    <t>settings.congestion_pattern.rectangles{2,1}.left_absciss</t>
+  </si>
+  <si>
+    <t>settings.congestion_pattern.rectangles{2,1}.right_absciss</t>
+  </si>
+  <si>
+    <t>settings.congestion_pattern.rectangles{2,1}.up_ordinate</t>
+  </si>
+  <si>
+    <t>settings.congestion_pattern.rectangles{2,1}.down_ordinate</t>
+  </si>
+  <si>
+    <t>settings.error_function.performance_calculators</t>
+  </si>
+  <si>
+    <t>settings.error_function.norms</t>
+  </si>
+  <si>
+    <t>{'L1','L1','L1','L1'}</t>
+  </si>
+  <si>
+    <t>struct('CongestionPattern',[0.5],'TVH',[0.3],'KnobsDistance',[0.2],'TVM',[0])</t>
+  </si>
+  <si>
+    <t>[44]</t>
+  </si>
+  <si>
+    <t>[120]</t>
+  </si>
+  <si>
+    <t>[232]</t>
+  </si>
+  <si>
+    <t>[12]</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[1500]</t>
+  </si>
+  <si>
+    <t>[0.25]</t>
+  </si>
+  <si>
+    <t>[1.75]</t>
+  </si>
+  <si>
     <t>[0.75]</t>
   </si>
   <si>
-    <t>[1800]</t>
-  </si>
-  <si>
-    <t>[11]</t>
-  </si>
-  <si>
-    <t>[769774,717691,761177,772857 ,772872,770172]</t>
-  </si>
-  <si>
-    <t>[24162804;128793003;-781754904;-781749995;-126537863;-126499580;-24558231;-24031553;-24029866;-24026218;126499392;756090723]</t>
-  </si>
-  <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>[0.33]</t>
-  </si>
-  <si>
-    <t>temp.congestionPattern.rectangles</t>
-  </si>
-  <si>
-    <t>temp.congestion_pattern.rectangles{1,1}.left_absciss</t>
-  </si>
-  <si>
-    <t>temp.congestion_pattern.rectangles{1,1}.right_absciss</t>
-  </si>
-  <si>
-    <t>temp.congestion_pattern.rectangles{1,1}.up_ordinate</t>
-  </si>
-  <si>
-    <t>temp.congestion_pattern.rectangles{1,1}.down_ordinate</t>
-  </si>
-  <si>
-    <t>temp.congestion_pattern.rectangles{2,1}.right_absciss</t>
-  </si>
-  <si>
-    <t>temp.congestion_pattern.rectangles{2,1}.up_ordinate</t>
-  </si>
-  <si>
-    <t>temp.congestion_pattern.rectangles{2,1}.down_ordinate</t>
-  </si>
-  <si>
-    <t>temp.congestion_pattern.rectangles{3,1}.left_absciss</t>
-  </si>
-  <si>
-    <t>temp.congestion_pattern.rectangles{3,1}.right_absciss</t>
-  </si>
-  <si>
-    <t>temp.congestion_pattern.rectangles{3,1}.up_ordinate</t>
-  </si>
-  <si>
-    <t>temp.congestion_pattern.rectangles{3,1}.down_ordinate</t>
-  </si>
-  <si>
-    <t>temp.congestion_pattern.rectangles{2,1}.left_absciss</t>
+    <t>[1.25]</t>
+  </si>
+  <si>
+    <t>struct('CongestionPattern',[0.5],'TVH',[0.5],'TVM',[0])</t>
+  </si>
+  <si>
+    <t>[0.9]</t>
+  </si>
+  <si>
+    <t>[1.1]</t>
   </si>
 </sst>
 </file>
@@ -648,11 +678,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,64 +697,64 @@
         <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -732,64 +762,64 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -862,2006 +892,2044 @@
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>43</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U26" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U27" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="U30" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="S34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="T34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="U34" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="T35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="U35" s="4" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S36" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
+      <c r="A37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>48</v>
+      <c r="C38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="U39" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U47" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U46" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U48" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2883,7 +2951,7 @@
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2905,7 +2973,7 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2927,7 +2995,7 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2949,7 +3017,7 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2971,7 +3039,7 @@
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2993,7 +3061,7 @@
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -3015,7 +3083,7 @@
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -3037,8 +3105,7 @@
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -3060,7 +3127,7 @@
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
     </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -3082,7 +3149,8 @@
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
     </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -3104,7 +3172,7 @@
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -3126,7 +3194,7 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
     </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -3148,7 +3216,7 @@
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
     </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -3170,6 +3238,50 @@
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
     </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="63480" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="65340" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="cmaes" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="93">
   <si>
     <t>maxEval</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>[1.1]</t>
+  </si>
+  <si>
+    <t>[0.1]</t>
   </si>
 </sst>
 </file>
@@ -680,9 +683,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,7 +1846,7 @@
         <v>87</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>90</v>
@@ -1908,7 +1911,7 @@
         <v>88</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>91</v>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="65340" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="67200" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="cmaes" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="95">
   <si>
     <t>maxEval</t>
   </si>
@@ -293,6 +293,12 @@
   </si>
   <si>
     <t>[0.1]</t>
+  </si>
+  <si>
+    <t>pems.incertitude</t>
+  </si>
+  <si>
+    <t>[0.01]</t>
   </si>
 </sst>
 </file>
@@ -681,11 +687,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B27" sqref="B27"/>
+      <selection pane="topRight" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,419 +963,428 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>36</v>
@@ -1414,325 +1429,307 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="Q23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="R23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="S23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="T23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="U22" s="2" t="s">
+      <c r="U23" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="24" spans="1:22" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="P24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="Q24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="S23" s="3" t="s">
+      <c r="S24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="T24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U23" s="3" t="s">
+      <c r="U24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="V23" s="3" t="s">
+      <c r="V24" s="3" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>22</v>
@@ -1797,1164 +1794,1207 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U28" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M30" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="N29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O29" s="2" t="s">
+      <c r="N30" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="O30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="Q30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R29" s="2" t="s">
+      <c r="R30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S29" s="2" t="s">
+      <c r="S30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T29" s="2" t="s">
+      <c r="T30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U29" s="2" t="s">
+      <c r="U30" s="2" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U31" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="Q33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="R33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="S33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="T33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="U33" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U33" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="U34" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="S36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="T36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="U36" s="4" t="s">
-        <v>20</v>
+      <c r="B35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="M39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N38" s="4" t="s">
+      <c r="N39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O38" s="4" t="s">
+      <c r="O39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P38" s="4" t="s">
+      <c r="P39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="4" t="s">
+      <c r="Q39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R38" s="4" t="s">
+      <c r="R39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S38" s="4" t="s">
+      <c r="S39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="T38" s="4" t="s">
+      <c r="T39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U38" s="4" t="s">
+      <c r="U39" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-    </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U40" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="K46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M45" s="2" t="s">
+      <c r="M46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N45" s="2" t="s">
+      <c r="N46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O45" s="2" t="s">
+      <c r="O46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P45" s="2" t="s">
+      <c r="P46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q45" s="2" t="s">
+      <c r="Q46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="R45" s="2" t="s">
+      <c r="R46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S45" s="2" t="s">
+      <c r="S46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T45" s="2" t="s">
+      <c r="T46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U45" s="2" t="s">
+      <c r="U46" s="2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="U47" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U48" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K49" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="L49" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M48" s="2" t="s">
+      <c r="M49" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N48" s="2" t="s">
+      <c r="N49" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O48" s="2" t="s">
+      <c r="O49" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P48" s="2" t="s">
+      <c r="P49" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q48" s="2" t="s">
+      <c r="Q49" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R48" s="2" t="s">
+      <c r="R49" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S48" s="2" t="s">
+      <c r="S49" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="T48" s="2" t="s">
+      <c r="T49" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="U48" s="2" t="s">
+      <c r="U49" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-    </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2976,7 +3016,7 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2998,7 +3038,7 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
     </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -3020,7 +3060,7 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -3042,7 +3082,7 @@
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
     </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -3064,7 +3104,7 @@
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -3086,7 +3126,7 @@
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -3108,7 +3148,7 @@
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
     </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -3153,7 +3193,6 @@
       <c r="U65" s="1"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -3176,6 +3215,7 @@
       <c r="U66" s="1"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -3285,6 +3325,28 @@
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
     </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="68130" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="cmaes" sheetId="1" r:id="rId1"/>
@@ -295,10 +295,10 @@
     <t>[0.1]</t>
   </si>
   <si>
-    <t>pems.incertitude</t>
-  </si>
-  <si>
     <t>[0.01]</t>
+  </si>
+  <si>
+    <t>pems.uncertainty</t>
   </si>
 </sst>
 </file>
@@ -689,9 +689,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B43" sqref="B43"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +963,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>92</v>
@@ -1002,10 +1002,10 @@
         <v>92</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>92</v>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="68130" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="71850" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="cmaes" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="101">
   <si>
     <t>maxEval</t>
   </si>
@@ -250,9 +250,6 @@
     <t>{'L1','L1','L1','L1'}</t>
   </si>
   <si>
-    <t>struct('CongestionPattern',[0.5],'TVH',[0.3],'KnobsDistance',[0.2],'TVM',[0])</t>
-  </si>
-  <si>
     <t>[44]</t>
   </si>
   <si>
@@ -299,6 +296,27 @@
   </si>
   <si>
     <t>pems.uncertainty</t>
+  </si>
+  <si>
+    <t>{'L1','L1','L2','L1'}</t>
+  </si>
+  <si>
+    <t>[2000]</t>
+  </si>
+  <si>
+    <t>struct('CongestionPattern',[0.5],'TVH',[0.35],'KnobsDistance',[0.15],'TVM',[0])</t>
+  </si>
+  <si>
+    <t>[0.05]</t>
+  </si>
+  <si>
+    <t>[35]</t>
+  </si>
+  <si>
+    <t>[0.33]</t>
+  </si>
+  <si>
+    <t>[1.5]</t>
   </si>
 </sst>
 </file>
@@ -691,7 +709,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,58 +981,58 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="P5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1087,46 +1105,46 @@
         <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>57</v>
@@ -1152,46 +1170,46 @@
         <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>50</v>
@@ -1282,46 +1300,46 @@
         <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>52</v>
@@ -1481,46 +1499,46 @@
         <v>75</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>55</v>
@@ -1546,22 +1564,22 @@
         <v>76</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>77</v>
@@ -1872,46 +1890,46 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>36</v>
@@ -1937,46 +1955,46 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="G30" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>34</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>34</v>
@@ -2002,22 +2020,22 @@
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>11</v>
@@ -2067,46 +2085,46 @@
         <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>37</v>
@@ -2479,31 +2497,31 @@
         <v>6</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>35</v>
@@ -2515,7 +2533,7 @@
         <v>35</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>34</v>
@@ -2674,46 +2692,46 @@
         <v>38</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>43</v>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -262,9 +262,6 @@
     <t>[0.025]</t>
   </si>
   <si>
-    <t>struct('CongestionPattern',[0.33],'TVH',[0.33],'KnobsDistance',[0.34],'TVM',[0])</t>
-  </si>
-  <si>
     <t>['uniform']</t>
   </si>
   <si>
@@ -278,6 +275,9 @@
   </si>
   <si>
     <t>error_function.pcs_uncertainty</t>
+  </si>
+  <si>
+    <t>struct('CongestionPattern',[0.5],'TVH',[0.25],'KnobsDistance',[0.25],'TVM',[0])</t>
   </si>
 </sst>
 </file>
@@ -758,8 +758,8 @@
   <dimension ref="A1:Y71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B16" sqref="B16"/>
+      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +775,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>40</v>
@@ -1006,7 +1006,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>41</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="10"/>
     </row>
@@ -1830,76 +1830,76 @@
         <v>63</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="T23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="U23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="V23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="W23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="X23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y23" s="12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -1981,7 +1981,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="3"/>
@@ -3103,76 +3103,76 @@
         <v>12</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -757,15 +757,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y12" sqref="Y12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="116.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="62.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="2" customWidth="1"/>
     <col min="3" max="25" width="75.7109375" style="2" customWidth="1"/>
     <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1825,7 +1825,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>63</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>77</v>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="92">
   <si>
     <t>maxEval</t>
   </si>
@@ -121,9 +121,6 @@
     <t>[1000]</t>
   </si>
   <si>
-    <t>initial_population_size</t>
-  </si>
-  <si>
     <t>multiple_sensor_vds_to_use</t>
   </si>
   <si>
@@ -278,6 +275,21 @@
   </si>
   <si>
     <t>struct('CongestionPattern',[0.5],'TVH',[0.25],'KnobsDistance',[0.25],'TVM',[0])</t>
+  </si>
+  <si>
+    <t>[24]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[3000]</t>
+  </si>
+  <si>
+    <t>[36]</t>
+  </si>
+  <si>
+    <t>population_size</t>
   </si>
 </sst>
 </file>
@@ -755,189 +767,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y71"/>
+  <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B26" sqref="B26"/>
+      <selection pane="topRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="2" customWidth="1"/>
-    <col min="3" max="25" width="75.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="75.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="75.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" style="2" customWidth="1"/>
+    <col min="6" max="26" width="75.7109375" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>40</v>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1000,993 +1021,1041 @@
       <c r="Y3" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="C7" s="10"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="C9" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="E9" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="T23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="U23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="V23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="W23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="X23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z23" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="C24" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="E24" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="V5" s="2" t="s">
+      <c r="F24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="G24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="H24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="I24" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="J24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="10"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="10"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="10"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="10"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="N23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="O23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="P23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="R23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="S23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="T23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="U23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="V23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="W23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="X23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y23" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -2007,175 +2076,182 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z25" s="3"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>47</v>
+      <c r="B27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -2238,21 +2314,24 @@
       <c r="Y28" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z28" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -2315,188 +2394,199 @@
       <c r="Y29" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z29" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C30" s="10"/>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C31" s="10"/>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>77</v>
+      <c r="B32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>70</v>
+      <c r="E32" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="Y32" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="Z32" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="H33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J33" s="2" t="s">
+      <c r="L33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N33" s="2" t="s">
+      <c r="P33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="S33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O33" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="R33" s="2" t="s">
+      <c r="T33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="W33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S33" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="V33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W33" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="X33" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="Y33" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="Z33" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>11</v>
+      <c r="C34" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>11</v>
+        <v>88</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>11</v>
@@ -2558,98 +2648,104 @@
       <c r="Y34" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z34" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>74</v>
+      <c r="B35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y35" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="Z35" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F36" s="2" t="s">
@@ -2712,21 +2808,24 @@
       <c r="Y36" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z36" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F37" s="2" t="s">
@@ -2789,21 +2888,24 @@
       <c r="Y37" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z37" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -2866,21 +2968,24 @@
       <c r="Y38" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z38" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F39" s="4" t="s">
@@ -2943,21 +3048,24 @@
       <c r="Y39" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z39" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F40" s="4" t="s">
@@ -3020,21 +3128,24 @@
       <c r="Y40" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z40" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F41" s="2" t="s">
@@ -3062,133 +3173,139 @@
         <v>32</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y41" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="Z41" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>82</v>
+      <c r="B42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y42" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="Z42" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="2" t="s">
@@ -3251,98 +3368,104 @@
       <c r="Y43" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z43" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>67</v>
+        <v>87</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y44" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="Z44" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="10" t="s">
         <v>22</v>
       </c>
       <c r="F45" s="2" t="s">
@@ -3405,21 +3528,24 @@
       <c r="Y45" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z45" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F46" s="2" t="s">
@@ -3482,162 +3608,171 @@
       <c r="Y46" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z46" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="C47" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z47" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="X47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y47" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>46</v>
+      <c r="B48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y48" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="Z48" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -3662,8 +3797,9 @@
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
-    </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z56" s="1"/>
+    </row>
+    <row r="57" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -3688,8 +3824,9 @@
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
-    </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z57" s="1"/>
+    </row>
+    <row r="58" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -3714,8 +3851,9 @@
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
-    </row>
-    <row r="59" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z58" s="1"/>
+    </row>
+    <row r="59" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -3740,8 +3878,9 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
-    </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z59" s="1"/>
+    </row>
+    <row r="60" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -3766,8 +3905,9 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
-    </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z60" s="1"/>
+    </row>
+    <row r="61" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -3792,8 +3932,9 @@
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
-    </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z61" s="1"/>
+    </row>
+    <row r="62" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -3818,8 +3959,9 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
-    </row>
-    <row r="63" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z62" s="1"/>
+    </row>
+    <row r="63" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -3844,8 +3986,9 @@
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
-    </row>
-    <row r="64" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z63" s="1"/>
+    </row>
+    <row r="64" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -3870,8 +4013,9 @@
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z64" s="1"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -3896,8 +4040,9 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z65" s="1"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3923,8 +4068,9 @@
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z66" s="1"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -3949,8 +4095,9 @@
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z67" s="1"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -3975,8 +4122,9 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z68" s="1"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -4001,8 +4149,9 @@
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z69" s="1"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -4027,8 +4176,9 @@
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z70" s="1"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -4053,6 +4203,7 @@
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xls/Cmaes_210E_program.xlsx
+++ b/xls/Cmaes_210E_program.xlsx
@@ -771,7 +771,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B20" sqref="B20"/>
+      <selection pane="topRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,7 +1110,7 @@
         <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>80</v>
@@ -2417,7 +2417,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>33</v>
@@ -2497,7 +2497,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>77</v>
